--- a/Adult Income/model_perf_metrics_merged_scaled.xlsx
+++ b/Adult Income/model_perf_metrics_merged_scaled.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dideu\OneDrive\Documents\DDB\thesis\Thesis_Project\Adult Income\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1EA0DC-7F10-4361-95D1-CF6BBB241082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE96539F-C49B-42ED-AAEA-BA04D9299D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -143,13 +156,16 @@
   </si>
   <si>
     <t>LR _10000_1</t>
+  </si>
+  <si>
+    <t>Added_cf_num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +177,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,11 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,9 +541,10 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +566,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -561,7 +590,7 @@
         <v>0.76660799220564124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -583,8 +612,12 @@
       <c r="G3">
         <v>32155</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>G3-27155</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -606,8 +639,12 @@
       <c r="G4">
         <v>31855</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" ref="H4:H35" si="0">G4-27155</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -629,8 +666,12 @@
       <c r="G5">
         <v>31655</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -652,8 +693,12 @@
       <c r="G6">
         <v>31755</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -675,8 +720,12 @@
       <c r="G7">
         <v>32155</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -698,8 +747,12 @@
       <c r="G8">
         <v>32655</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -721,8 +774,12 @@
       <c r="G9">
         <v>32655</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -744,8 +801,12 @@
       <c r="G10">
         <v>31955</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -767,8 +828,12 @@
       <c r="G11">
         <v>32155</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -790,8 +855,12 @@
       <c r="G12">
         <v>32655</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -813,8 +882,12 @@
       <c r="G13">
         <v>36210</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>9055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -836,8 +909,12 @@
       <c r="G14">
         <v>34155</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -859,8 +936,12 @@
       <c r="G15">
         <v>33580</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -882,8 +963,12 @@
       <c r="G16">
         <v>33655</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -905,8 +990,12 @@
       <c r="G17">
         <v>33155</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -928,8 +1017,12 @@
       <c r="G18">
         <v>34655</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -951,8 +1044,12 @@
       <c r="G19">
         <v>34155</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -974,8 +1071,12 @@
       <c r="G20">
         <v>36655</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -997,8 +1098,12 @@
       <c r="G21">
         <v>34638</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1020,8 +1125,12 @@
       <c r="G22">
         <v>36655</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1043,8 +1152,12 @@
       <c r="G23">
         <v>36655</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1066,8 +1179,12 @@
       <c r="G24">
         <v>36647</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1089,8 +1206,12 @@
       <c r="G25">
         <v>37510</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>10355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1112,8 +1233,12 @@
       <c r="G26">
         <v>41638</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>14483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1135,8 +1260,12 @@
       <c r="G27">
         <v>41378</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>14223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1158,8 +1287,12 @@
       <c r="G28">
         <v>41655</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1181,8 +1314,12 @@
       <c r="G29">
         <v>41655</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1204,8 +1341,12 @@
       <c r="G30">
         <v>45427</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>18272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1227,8 +1368,12 @@
       <c r="G31">
         <v>54967</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>27812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1250,8 +1395,12 @@
       <c r="G32">
         <v>46655</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1273,8 +1422,12 @@
       <c r="G33">
         <v>61655</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1296,8 +1449,12 @@
       <c r="G34">
         <v>81535</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>54380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1318,6 +1475,10 @@
       </c>
       <c r="G35">
         <v>131519</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>104364</v>
       </c>
     </row>
   </sheetData>
